--- a/Juan/PlanilhaModelo.xlsx
+++ b/Juan/PlanilhaModelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disrct\Desktop\Projeto Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disrct\Desktop\Projeto Web\ProcessoSeletivo\Juan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Nome</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>Francês</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -125,6 +128,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -150,10 +160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -446,7 +458,7 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +486,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -503,8 +518,11 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -532,8 +550,11 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -561,6 +582,18 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
